--- a/biology/Botanique/Recolor/Recolor.xlsx
+++ b/biology/Botanique/Recolor/Recolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Recolor est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Recolor
@@ -512,9 +524,11 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Variété enregistrée au registre de l'Union européenne[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Variété enregistrée au registre de l'Union européenne:
 Numéro de variété : 30384
 Date d'inscription : 26/11/2010
 Demandeur : Julius Kühn-Institut</t>
@@ -545,11 +559,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>("Julius Kühn-Institut" et "Bundesforschungsinstitut für Kulturpfl anzen", Allemagne)
 Protection : depuis 2006.
-Obtenteur : C. Fisher, Institut de Dresde-Pillnitz, Allemagne[2].</t>
+Obtenteur : C. Fisher, Institut de Dresde-Pillnitz, Allemagne.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Epicarpe : rouge.
 Calibre : moyen.</t>
@@ -608,7 +626,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Recolor résulte du croisement de deux variétés résistantes à la tavelure Regine × Reglindis.
 </t>
@@ -639,7 +659,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar diploïde.
 Pollinisé par : Golden Delicious, Idared, Reanda.
@@ -671,7 +693,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété Recolor est multirésistante.
 </t>
@@ -702,9 +726,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maturité : mi-septembre[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maturité : mi-septembre.
 Consommation : un bon mois.
 La multirésistance du cultivar aux maladies permet de réduire les traitements chimiques. Cette variété est donc respectueuse de l'environnement.
 </t>
